--- a/Exlibri.xlsx
+++ b/Exlibri.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\06_DBSM\03_Benutzung\01_allgemein\Exemplardaten_Aenderungen_div_Bestaende\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\ubuntu-dbsm\home\dbsm\projekte\exlibri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
   <si>
     <t>Signatur</t>
   </si>
@@ -233,24 +233,15 @@
     <t>Strichätzung</t>
   </si>
   <si>
-    <t>Exlibris für Dr. Hans Schulz : Strichäzung nach einer Federzeichnung gezeichnet C G</t>
-  </si>
-  <si>
     <t>1960/Bl. 4</t>
   </si>
   <si>
     <t>Kurt</t>
   </si>
   <si>
-    <t>Exlibris für Kurt Maas : Radierung ; signiert KABLO 1927 d.i.</t>
-  </si>
-  <si>
     <t>1961/Bl. 118</t>
   </si>
   <si>
-    <t>Exlibris für Dr. Hans Schulz : Holzschnitt von H. S.</t>
-  </si>
-  <si>
     <t>Holzschnitt</t>
   </si>
   <si>
@@ -348,6 +339,87 @@
   </si>
   <si>
     <t>32 xy 63</t>
+  </si>
+  <si>
+    <t>Exlibris - Holzschnitt von H. S.</t>
+  </si>
+  <si>
+    <t>Exlibris - Radierung ; signiert KABLO 1927 d.i.</t>
+  </si>
+  <si>
+    <t>Exlibris - Strichäzung nach einer Federzeichnung gezeichnet C G</t>
+  </si>
+  <si>
+    <t>1961/Bl. 8</t>
+  </si>
+  <si>
+    <t>vor 1953</t>
+  </si>
+  <si>
+    <t>Mathilde</t>
+  </si>
+  <si>
+    <t>Ade</t>
+  </si>
+  <si>
+    <t>!118986783!</t>
+  </si>
+  <si>
+    <t>Wilhelm</t>
+  </si>
+  <si>
+    <t>Niedermayer</t>
+  </si>
+  <si>
+    <t>Exlibris - Strichätzung nach einer Federzeichnung mit Tangiermuster kombiniert : mit Aufschrift "Der Verteidiger" ; signiert Ade</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>1961/Bl. 9</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Manes</t>
+  </si>
+  <si>
+    <t>Exlibris - Strichätzung ; signiert Ade</t>
+  </si>
+  <si>
+    <t>um 1900</t>
+  </si>
+  <si>
+    <t>1981/Bl. 118</t>
+  </si>
+  <si>
+    <t>Exlibris mit unter der Beschriftung "Ex Libris" zur Sonne aufsteigender Vogel ; signiert rechts: Ade ; für den Verlag A.W.Zickfeldt</t>
+  </si>
+  <si>
+    <t>Osterwieck</t>
+  </si>
+  <si>
+    <t>70 x 50</t>
+  </si>
+  <si>
+    <t>1966/Bl. 232</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>!117603058!</t>
+  </si>
+  <si>
+    <t>Zur Westen</t>
+  </si>
+  <si>
+    <t>Exlibris mit unter der Schriftzeile "Walter von Zur Westen" die in ein Wappen ausläuft, auf rotem Hintergrund ein Sonnenwagen, der von drei Pferden gezoge wird und in dem eine Knabengestalt mit einem Strahlenkranz um das Haupt steht : darunter Waldlandschaft - Radierung mit Tonunterdruck ; signiert unten rechts: ADE</t>
+  </si>
+  <si>
+    <t>95 x95</t>
   </si>
 </sst>
 </file>
@@ -702,26 +774,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="60.125" customWidth="1"/>
-    <col min="14" max="14" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="10" max="10" width="60.08984375" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -777,7 +849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -812,7 +884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -829,7 +901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -852,7 +924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -875,7 +947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -895,7 +967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -912,7 +984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -929,7 +1001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -946,7 +1018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -963,7 +1035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -980,7 +1052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -991,10 +1063,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
@@ -1006,15 +1078,15 @@
         <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="P12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4">
         <v>1927</v>
@@ -1023,21 +1095,21 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="P13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4">
         <v>1939</v>
@@ -1046,10 +1118,10 @@
         <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
         <v>63</v>
@@ -1061,132 +1133,263 @@
         <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4">
         <v>1946</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
         <v>76</v>
       </c>
-      <c r="J15" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
       <c r="P15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4">
         <v>1958</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
         <v>87</v>
-      </c>
-      <c r="H16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" t="s">
-        <v>90</v>
       </c>
       <c r="P16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="4">
         <v>1979</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
+      <c r="M17" t="s">
         <v>94</v>
       </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="P17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>96</v>
-      </c>
-      <c r="K17" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" t="s">
-        <v>97</v>
-      </c>
-      <c r="P17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>99</v>
       </c>
       <c r="B18" s="4">
         <v>1967</v>
       </c>
       <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="N18" t="s">
         <v>103</v>
-      </c>
-      <c r="I18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" t="s">
-        <v>106</v>
       </c>
       <c r="P18" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1953</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1901</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1908</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1953</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Exlibri.xlsx
+++ b/Exlibri.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="189">
   <si>
     <t>Signatur</t>
   </si>
@@ -420,6 +420,180 @@
   </si>
   <si>
     <t>95 x95</t>
+  </si>
+  <si>
+    <t>Besitzer Verlag</t>
+  </si>
+  <si>
+    <t>Besitzer Verlag IDN</t>
+  </si>
+  <si>
+    <t>A.W. Zickfeldt</t>
+  </si>
+  <si>
+    <t>!1064327281!</t>
+  </si>
+  <si>
+    <t>1983/Bl. 245</t>
+  </si>
+  <si>
+    <t>Aikma</t>
+  </si>
+  <si>
+    <t>W. M.</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Katherine S.</t>
+  </si>
+  <si>
+    <t>Drejer</t>
+  </si>
+  <si>
+    <t>Exlibris - Kupferstich - umgeben von Akanthusblättern Buch mit Schließe, darauf Schlüssel liegend : Umschrift "Who knowth how to open this is wise" ; signiert rechts unten: W. M. Aikma</t>
+  </si>
+  <si>
+    <t>100 x 80</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>1981/Bl. 228</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>Akosow</t>
+  </si>
+  <si>
+    <t>W. D.</t>
+  </si>
+  <si>
+    <t>Perkin</t>
+  </si>
+  <si>
+    <t>!1050525035!</t>
+  </si>
+  <si>
+    <t>Exlibris - Holzschnitt - mit umgefallener Schnapsflasche mit Aschenbecher und glimmenden Zigaretten ; signiert im Bild AA 75</t>
+  </si>
+  <si>
+    <t>50 X 40</t>
+  </si>
+  <si>
+    <t>1981/Bl. 229</t>
+  </si>
+  <si>
+    <t>Exlibris - Holzschnitt (Blautdruck) - mit rauchendem Mann in Gaststätte, im Hintergrund Stadtsilhoutte ; signiert links oben AA 75</t>
+  </si>
+  <si>
+    <t>50 x 40</t>
+  </si>
+  <si>
+    <t>1982/Bl. 1113</t>
+  </si>
+  <si>
+    <t>Marie-Louise</t>
+  </si>
+  <si>
+    <t>Albessart</t>
+  </si>
+  <si>
+    <t>!1050402170!</t>
+  </si>
+  <si>
+    <t>Baumont</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>K.-H.</t>
+  </si>
+  <si>
+    <t>!104167807X!</t>
+  </si>
+  <si>
+    <t>Exlibris - Holzschnitt - mit Specht am Baumstamm, von Vögeln umgeben ; handsigniert rechts unten</t>
+  </si>
+  <si>
+    <t>102 x 80</t>
+  </si>
+  <si>
+    <t>Eduard</t>
+  </si>
+  <si>
+    <t>Albrecht</t>
+  </si>
+  <si>
+    <t>!11812384X!</t>
+  </si>
+  <si>
+    <t>1986/Bl. 322</t>
+  </si>
+  <si>
+    <t>vor 1986</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Exlibris - Holzstich ; handisgniert rechts unten</t>
+  </si>
+  <si>
+    <t>Krommenhagen</t>
+  </si>
+  <si>
+    <t>108 x 43</t>
+  </si>
+  <si>
+    <t>147 x 105</t>
+  </si>
+  <si>
+    <t>1986/Bl. 338</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Dr. Leier</t>
+  </si>
+  <si>
+    <t>!106583360!</t>
+  </si>
+  <si>
+    <t>Exlibris - Holzstich - mit Zahnarzt in seiner Praxis ; handsigniert rechts unten: Albrecht</t>
+  </si>
+  <si>
+    <t>Nr. 83/100</t>
+  </si>
+  <si>
+    <t>150 x 105</t>
+  </si>
+  <si>
+    <t>95 x 70</t>
+  </si>
+  <si>
+    <t>!04033760X!</t>
+  </si>
+  <si>
+    <t>!040481662!</t>
+  </si>
+  <si>
+    <t>!040257363!</t>
   </si>
 </sst>
 </file>
@@ -482,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -494,6 +668,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -774,11 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -789,11 +967,12 @@
     <col min="4" max="4" width="12.90625" customWidth="1"/>
     <col min="5" max="5" width="13.26953125" customWidth="1"/>
     <col min="8" max="8" width="13.08984375" customWidth="1"/>
-    <col min="10" max="10" width="60.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="12" max="12" width="95.90625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="5.90625" customWidth="1"/>
+    <col min="17" max="17" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -822,34 +1001,43 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -865,26 +1053,29 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -894,14 +1085,17 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="M3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -911,20 +1105,23 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -934,20 +1131,26 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="M5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P5" t="s">
         <v>37</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -957,17 +1160,20 @@
       <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>40</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -977,14 +1183,17 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -994,14 +1203,17 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1011,14 +1223,17 @@
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1028,14 +1243,14 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1045,14 +1260,17 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1077,14 +1295,17 @@
       <c r="I12" t="s">
         <v>65</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1100,14 +1321,17 @@
       <c r="H13" t="s">
         <v>98</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="P13" t="s">
+      <c r="S13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -1132,14 +1356,17 @@
       <c r="I14" t="s">
         <v>65</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P14" t="s">
+      <c r="S14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1152,17 +1379,20 @@
       <c r="E15" t="s">
         <v>73</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>76</v>
       </c>
-      <c r="P15" t="s">
+      <c r="S15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1184,14 +1414,17 @@
       <c r="I16" t="s">
         <v>86</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P16" t="s">
+      <c r="S16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1210,20 +1443,23 @@
       <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K17" t="s">
+      <c r="N17" t="s">
         <v>92</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>94</v>
       </c>
-      <c r="P17" t="s">
+      <c r="S17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -1248,20 +1484,26 @@
       <c r="I18" t="s">
         <v>101</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" t="s">
         <v>92</v>
       </c>
-      <c r="N18" t="s">
+      <c r="Q18" t="s">
         <v>103</v>
       </c>
-      <c r="P18" t="s">
+      <c r="S18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -1286,17 +1528,23 @@
       <c r="H19" t="s">
         <v>113</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" t="s">
         <v>115</v>
       </c>
-      <c r="P19" t="s">
+      <c r="S19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1321,14 +1569,17 @@
       <c r="H20" t="s">
         <v>118</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="P20" t="s">
+      <c r="S20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -1345,16 +1596,25 @@
         <v>111</v>
       </c>
       <c r="J21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" t="s">
         <v>123</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1382,18 +1642,267 @@
       <c r="I22" t="s">
         <v>127</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N22" t="s">
+      <c r="M22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q22" t="s">
         <v>130</v>
       </c>
-      <c r="P22" t="s">
+      <c r="S22" t="s">
         <v>25</v>
       </c>
+      <c r="T22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1899</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" t="s">
+        <v>142</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1975</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>154</v>
+      </c>
+      <c r="S24" t="s">
+        <v>71</v>
+      </c>
+      <c r="T24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1975</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>157</v>
+      </c>
+      <c r="S25" t="s">
+        <v>71</v>
+      </c>
+      <c r="T25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1979</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N26" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>167</v>
+      </c>
+      <c r="S26" t="s">
+        <v>71</v>
+      </c>
+      <c r="T26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1986</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>176</v>
+      </c>
+      <c r="S27" t="s">
+        <v>71</v>
+      </c>
+      <c r="T27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1983</v>
+      </c>
+      <c r="C28" s="6">
+        <v>30357</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N28" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>185</v>
+      </c>
+      <c r="S28" t="s">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s">
+        <v>188</v>
+      </c>
+      <c r="U28" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:U1"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>1501</formula1>
